--- a/DailyPricingAutomationTest/Repo/i2o_TestReport_Ausgold.xlsx
+++ b/DailyPricingAutomationTest/Repo/i2o_TestReport_Ausgold.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\SeleniumWorkSpace\DailyPricingAutomationTest\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit-WorkArea-Automation\GithubProjects\GitWorkspace_i2o_Dailyfeed\DailyPricingAutomationTest\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75298EE-79F9-4BE1-8A10-6157314EBEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F5BD94-DA4B-4389-9BDA-584529A6DAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="852" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
   <si>
     <t>Execution status</t>
   </si>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t>UNSCRAPED_EXPECTED_DATE</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1379,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1407,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1418,7 +1415,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
